--- a/teamproject/신치윤_애플리케이션설계.xlsx
+++ b/teamproject/신치윤_애플리케이션설계.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EZEN202\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webPro\teamproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -79,186 +79,187 @@
     <t>product/list.do</t>
   </si>
   <si>
+    <t>ProductService</t>
+  </si>
+  <si>
+    <t>productList / totCntProduct</t>
+  </si>
+  <si>
+    <t>ProductDto, pageNum</t>
+  </si>
+  <si>
+    <t>product/list</t>
+  </si>
+  <si>
+    <t>상품 상세보기</t>
+  </si>
+  <si>
+    <t>product/content.do</t>
+  </si>
+  <si>
+    <t>productCode</t>
+  </si>
+  <si>
+    <t>product/content</t>
+  </si>
+  <si>
+    <t>상품 검색</t>
+  </si>
+  <si>
+    <t>product/search.do</t>
+  </si>
+  <si>
+    <t>searchProduct, totCntSearch</t>
+  </si>
+  <si>
+    <t>product/search</t>
+  </si>
+  <si>
+    <t>상품 등록</t>
+  </si>
+  <si>
+    <t>product/insert.do</t>
+  </si>
+  <si>
+    <t>productInsert</t>
+  </si>
+  <si>
+    <t>ProductDto</t>
+  </si>
+  <si>
+    <t>admin/productInsert</t>
+  </si>
+  <si>
+    <t>관리자 상품 조회, 리스트</t>
+  </si>
+  <si>
+    <t>product/adminSearch.do</t>
+  </si>
+  <si>
+    <t>adminSearch</t>
+  </si>
+  <si>
+    <t>admin/productSearch</t>
+  </si>
+  <si>
+    <t>상품 수정</t>
+  </si>
+  <si>
+    <t>product/modify.do</t>
+  </si>
+  <si>
+    <t>productModify</t>
+  </si>
+  <si>
+    <t>상품 삭제</t>
+  </si>
+  <si>
+    <t>product/delete.do</t>
+  </si>
+  <si>
+    <t>productDelete</t>
+  </si>
+  <si>
+    <t>장바구니</t>
+  </si>
+  <si>
+    <t>장바구니 리스트</t>
+  </si>
+  <si>
+    <t>cart/list</t>
+  </si>
+  <si>
+    <t>CartController</t>
+  </si>
+  <si>
+    <t>CartService</t>
+  </si>
+  <si>
+    <t>cartList, sizeList, colorList</t>
+  </si>
+  <si>
+    <t>httpSession</t>
+  </si>
+  <si>
+    <t>장바구니 중복확인</t>
+  </si>
+  <si>
+    <t>cart/confirmCart</t>
+  </si>
+  <si>
+    <t>confirmCart</t>
+  </si>
+  <si>
+    <t>CartDto 배열</t>
+  </si>
+  <si>
+    <t>장바구니 상품 추가</t>
+  </si>
+  <si>
+    <t>cart/insertCart</t>
+  </si>
+  <si>
+    <t>insertCart</t>
+  </si>
+  <si>
+    <t>장바구니 수량 변경</t>
+  </si>
+  <si>
+    <t>cart/updateCart</t>
+  </si>
+  <si>
+    <t>updateCart</t>
+  </si>
+  <si>
+    <t>forward:list.do</t>
+  </si>
+  <si>
+    <t>장바구니 상품 전체 삭제</t>
+  </si>
+  <si>
+    <t>cart/deleteAll</t>
+  </si>
+  <si>
+    <t>deleteAll</t>
+  </si>
+  <si>
+    <t>memberId</t>
+  </si>
+  <si>
+    <t>장바구니 선택(체크박스)</t>
+  </si>
+  <si>
+    <t>장바구니 선택 상품 삭제</t>
+  </si>
+  <si>
+    <t>cart/select</t>
+  </si>
+  <si>
+    <t>deleteCart</t>
+  </si>
+  <si>
+    <t>submit, cartNum배열</t>
+  </si>
+  <si>
+    <t>장바구니 선택 상품 주문</t>
+  </si>
+  <si>
+    <t>mapper ID(DAO method명)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Alipheese16th</t>
+  </si>
+  <si>
+    <t>신치윤 깃주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ProductController</t>
-  </si>
-  <si>
-    <t>ProductService</t>
-  </si>
-  <si>
-    <t>productList / totCntProduct</t>
-  </si>
-  <si>
-    <t>ProductDto, pageNum</t>
-  </si>
-  <si>
-    <t>product/list</t>
-  </si>
-  <si>
-    <t>상품 상세보기</t>
-  </si>
-  <si>
-    <t>product/content.do</t>
-  </si>
-  <si>
-    <t>productCode</t>
-  </si>
-  <si>
-    <t>product/content</t>
-  </si>
-  <si>
-    <t>상품 검색</t>
-  </si>
-  <si>
-    <t>product/search.do</t>
-  </si>
-  <si>
-    <t>searchProduct, totCntSearch</t>
-  </si>
-  <si>
-    <t>product/search</t>
-  </si>
-  <si>
-    <t>상품 등록</t>
-  </si>
-  <si>
-    <t>product/insert.do</t>
-  </si>
-  <si>
-    <t>productInsert</t>
-  </si>
-  <si>
-    <t>ProductDto</t>
-  </si>
-  <si>
-    <t>admin/productInsert</t>
-  </si>
-  <si>
-    <t>관리자 상품 조회, 리스트</t>
-  </si>
-  <si>
-    <t>product/adminSearch.do</t>
-  </si>
-  <si>
-    <t>adminSearch</t>
-  </si>
-  <si>
-    <t>admin/productSearch</t>
-  </si>
-  <si>
-    <t>상품 수정</t>
-  </si>
-  <si>
-    <t>product/modify.do</t>
-  </si>
-  <si>
-    <t>productModify</t>
-  </si>
-  <si>
-    <t>상품 삭제</t>
-  </si>
-  <si>
-    <t>product/delete.do</t>
-  </si>
-  <si>
-    <t>productDelete</t>
-  </si>
-  <si>
-    <t>장바구니</t>
-  </si>
-  <si>
-    <t>장바구니 리스트</t>
-  </si>
-  <si>
-    <t>cart/list</t>
-  </si>
-  <si>
-    <t>CartController</t>
-  </si>
-  <si>
-    <t>CartService</t>
-  </si>
-  <si>
-    <t>cartList, sizeList, colorList</t>
-  </si>
-  <si>
-    <t>httpSession</t>
-  </si>
-  <si>
-    <t>장바구니 중복확인</t>
-  </si>
-  <si>
-    <t>cart/confirmCart</t>
-  </si>
-  <si>
-    <t>confirmCart</t>
-  </si>
-  <si>
-    <t>CartDto 배열</t>
-  </si>
-  <si>
-    <t>장바구니 상품 추가</t>
-  </si>
-  <si>
-    <t>cart/insertCart</t>
-  </si>
-  <si>
-    <t>insertCart</t>
-  </si>
-  <si>
-    <t>장바구니 수량 변경</t>
-  </si>
-  <si>
-    <t>cart/updateCart</t>
-  </si>
-  <si>
-    <t>updateCart</t>
-  </si>
-  <si>
-    <t>forward:list.do</t>
-  </si>
-  <si>
-    <t>장바구니 상품 전체 삭제</t>
-  </si>
-  <si>
-    <t>cart/deleteAll</t>
-  </si>
-  <si>
-    <t>deleteAll</t>
-  </si>
-  <si>
-    <t>memberId</t>
-  </si>
-  <si>
-    <t>장바구니 선택(체크박스)</t>
-  </si>
-  <si>
-    <t>장바구니 선택 상품 삭제</t>
-  </si>
-  <si>
-    <t>cart/select</t>
-  </si>
-  <si>
-    <t>deleteCart</t>
-  </si>
-  <si>
-    <t>submit, cartNum배열</t>
-  </si>
-  <si>
-    <t>장바구니 선택 상품 주문</t>
-  </si>
-  <si>
-    <t>mapper ID(DAO method명)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/Alipheese16th</t>
-  </si>
-  <si>
-    <t>신치윤 깃주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,6 +463,15 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -470,15 +480,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,7 +770,7 @@
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -805,8 +806,8 @@
       <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>69</v>
+      <c r="H2" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>3</v>
@@ -819,7 +820,7 @@
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -828,293 +829,293 @@
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="4"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="4"/>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="4"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="4"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
-      <c r="C12" s="10"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="4"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="4"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="7" t="s">
+    </row>
+    <row r="14" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="4"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="4"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="4"/>
+      <c r="C15" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="4"/>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1128,12 +1129,12 @@
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="D19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
